--- a/Datos/Precio_Bolsa_Nacional_($kwh)_2012.xlsx
+++ b/Datos/Precio_Bolsa_Nacional_($kwh)_2012.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20365"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81227CC-2901-45AB-8542-98BACD14B3A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC69CFE5-67A4-463B-A2A4-623ACF9C3913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1216,7 +1227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1226,19 +1237,19 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1712,19 +1723,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA383"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="AA355" sqref="AA1:AV1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="256" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="256" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:27" ht="15">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1754,7 +1767,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.5">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1913,12 +1926,9 @@
       <c r="Z4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="6">
-        <f>AVERAGE(B4:Y4)</f>
-        <v>42.181114333333319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="13.5">
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1997,12 +2007,9 @@
       <c r="Z5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="6">
-        <f t="shared" ref="AA5:AA68" si="0">AVERAGE(B5:Y5)</f>
-        <v>54.377581000000013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="13.5">
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2081,12 +2088,9 @@
       <c r="Z6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="0"/>
-        <v>58.600615666666648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="13.5">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2165,12 +2169,9 @@
       <c r="Z7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="6">
-        <f t="shared" si="0"/>
-        <v>57.032245999999986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="13.5">
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2249,12 +2250,9 @@
       <c r="Z8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="6">
-        <f t="shared" si="0"/>
-        <v>58.074284000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="13.5">
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2333,12 +2331,9 @@
       <c r="Z9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="6">
-        <f t="shared" si="0"/>
-        <v>50.575930000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.5">
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2417,12 +2412,9 @@
       <c r="Z10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="6">
-        <f t="shared" si="0"/>
-        <v>51.528784666666638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="13.5">
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2501,12 +2493,9 @@
       <c r="Z11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="6">
-        <f t="shared" si="0"/>
-        <v>46.472185000000017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="13.5">
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2585,12 +2574,9 @@
       <c r="Z12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="6">
-        <f t="shared" si="0"/>
-        <v>50.739407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="13.5">
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2669,12 +2655,9 @@
       <c r="Z13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="0"/>
-        <v>57.318839333333358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="13.5">
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2753,12 +2736,9 @@
       <c r="Z14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="6">
-        <f t="shared" si="0"/>
-        <v>56.432690333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.5">
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2837,12 +2817,9 @@
       <c r="Z15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="6">
-        <f t="shared" si="0"/>
-        <v>55.653199666666673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="13.5">
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2921,12 +2898,9 @@
       <c r="Z16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="0"/>
-        <v>50.382577000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="13.5">
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3005,12 +2979,9 @@
       <c r="Z17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA17" s="6">
-        <f t="shared" si="0"/>
-        <v>51.42392766666665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.5">
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3089,12 +3060,9 @@
       <c r="Z18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="0"/>
-        <v>44.680336333333308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="13.5">
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3173,12 +3141,9 @@
       <c r="Z19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="0"/>
-        <v>52.481083666666649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="13.5">
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3257,12 +3222,9 @@
       <c r="Z20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="6">
-        <f t="shared" si="0"/>
-        <v>67.55341700000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="13.5">
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3341,12 +3303,9 @@
       <c r="Z21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="0"/>
-        <v>91.348607666666638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.5">
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3425,12 +3384,9 @@
       <c r="Z22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="0"/>
-        <v>86.691157333333365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="13.5">
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3509,12 +3465,9 @@
       <c r="Z23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="0"/>
-        <v>41.635270333333338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="13.5">
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3593,12 +3546,9 @@
       <c r="Z24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA24" s="6">
-        <f t="shared" si="0"/>
-        <v>45.153078000000015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="13.5">
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3677,12 +3627,9 @@
       <c r="Z25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="0"/>
-        <v>50.040424666666638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="13.5">
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3761,12 +3708,9 @@
       <c r="Z26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="0"/>
-        <v>52.175840666666652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="13.5">
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3845,12 +3789,9 @@
       <c r="Z27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" si="0"/>
-        <v>51.455777000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="13.5">
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3929,12 +3870,9 @@
       <c r="Z28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA28" s="6">
-        <f t="shared" si="0"/>
-        <v>60.738359666666689</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="13.5">
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4013,12 +3951,9 @@
       <c r="Z29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA29" s="6">
-        <f t="shared" si="0"/>
-        <v>59.348003333333338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="13.5">
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4097,12 +4032,9 @@
       <c r="Z30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA30" s="6">
-        <f t="shared" si="0"/>
-        <v>50.967149333333339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="13.5">
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4181,12 +4113,9 @@
       <c r="Z31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="0"/>
-        <v>41.129582333333339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="13.5">
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4265,12 +4194,9 @@
       <c r="Z32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA32" s="6">
-        <f t="shared" si="0"/>
-        <v>40.708853999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="13.5">
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4349,12 +4275,9 @@
       <c r="Z33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA33" s="6">
-        <f t="shared" si="0"/>
-        <v>43.939074333333345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="13.5">
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4433,12 +4356,9 @@
       <c r="Z34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA34" s="6">
-        <f t="shared" si="0"/>
-        <v>41.082366333333319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="13.5">
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4517,12 +4437,9 @@
       <c r="Z35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA35" s="6">
-        <f t="shared" si="0"/>
-        <v>42.79800733333331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="13.5">
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -4601,12 +4518,9 @@
       <c r="Z36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA36" s="6">
-        <f t="shared" si="0"/>
-        <v>43.618667333333349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="13.5">
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -4685,12 +4599,9 @@
       <c r="Z37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA37" s="6">
-        <f t="shared" si="0"/>
-        <v>46.305021000000011</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="13.5">
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -4769,12 +4680,9 @@
       <c r="Z38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA38" s="6">
-        <f t="shared" si="0"/>
-        <v>47.096270999999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="13.5">
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -4853,12 +4761,9 @@
       <c r="Z39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA39" s="6">
-        <f t="shared" si="0"/>
-        <v>51.891084999999983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="13.5">
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
@@ -4937,12 +4842,9 @@
       <c r="Z40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="0"/>
-        <v>49.567301000000015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="13.5">
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -5021,12 +4923,9 @@
       <c r="Z41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA41" s="6">
-        <f t="shared" si="0"/>
-        <v>44.783218666666677</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="13.5">
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -5105,12 +5004,9 @@
       <c r="Z42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA42" s="6">
-        <f t="shared" si="0"/>
-        <v>45.708632000000016</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="13.5">
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
@@ -5189,12 +5085,9 @@
       <c r="Z43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA43" s="6">
-        <f t="shared" si="0"/>
-        <v>45.465699333333312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="13.5">
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -5273,12 +5166,9 @@
       <c r="Z44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA44" s="6">
-        <f t="shared" si="0"/>
-        <v>44.413123666666657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="13.5">
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
@@ -5357,12 +5247,9 @@
       <c r="Z45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA45" s="6">
-        <f t="shared" si="0"/>
-        <v>50.113468333333323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="13.5">
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
@@ -5441,12 +5328,9 @@
       <c r="Z46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA46" s="6">
-        <f t="shared" si="0"/>
-        <v>57.482652333333341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="13.5">
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -5525,12 +5409,9 @@
       <c r="Z47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA47" s="6">
-        <f t="shared" si="0"/>
-        <v>70.577570000000023</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="13.5">
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -5609,12 +5490,9 @@
       <c r="Z48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA48" s="6">
-        <f t="shared" si="0"/>
-        <v>77.413210333333339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="13.5">
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -5693,12 +5571,9 @@
       <c r="Z49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA49" s="6">
-        <f t="shared" si="0"/>
-        <v>79.253239333333354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="13.5">
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -5777,12 +5652,9 @@
       <c r="Z50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA50" s="6">
-        <f t="shared" si="0"/>
-        <v>80.666233999999989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="13.5">
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -5861,12 +5733,9 @@
       <c r="Z51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA51" s="6">
-        <f t="shared" si="0"/>
-        <v>81.012239000000008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="13.5">
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -5945,12 +5814,9 @@
       <c r="Z52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA52" s="6">
-        <f t="shared" si="0"/>
-        <v>81.81012433333332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="13.5">
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -6029,12 +5895,9 @@
       <c r="Z53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA53" s="6">
-        <f t="shared" si="0"/>
-        <v>80.601259000000013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="13.5">
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -6113,12 +5976,9 @@
       <c r="Z54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA54" s="6">
-        <f t="shared" si="0"/>
-        <v>81.435046999999969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="13.5">
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -6197,12 +6057,9 @@
       <c r="Z55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA55" s="6">
-        <f t="shared" si="0"/>
-        <v>109.79455033333333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="13.5">
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -6281,12 +6138,9 @@
       <c r="Z56" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA56" s="6">
-        <f t="shared" si="0"/>
-        <v>123.28129566666668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="13.5">
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -6365,12 +6219,9 @@
       <c r="Z57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA57" s="6">
-        <f t="shared" si="0"/>
-        <v>112.39032766666669</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="13.5">
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -6449,12 +6300,9 @@
       <c r="Z58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA58" s="6">
-        <f t="shared" si="0"/>
-        <v>104.568259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="13.5">
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -6533,12 +6381,9 @@
       <c r="Z59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA59" s="6">
-        <f t="shared" si="0"/>
-        <v>115.89311133333331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="13.5">
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -6617,12 +6462,9 @@
       <c r="Z60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA60" s="6">
-        <f t="shared" si="0"/>
-        <v>102.66835733333333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="13.5">
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -6701,12 +6543,9 @@
       <c r="Z61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA61" s="6">
-        <f t="shared" si="0"/>
-        <v>132.79296666666662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="13.5">
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -6785,12 +6624,9 @@
       <c r="Z62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA62" s="6">
-        <f t="shared" si="0"/>
-        <v>138.88807366666666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="13.5">
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -6869,12 +6705,9 @@
       <c r="Z63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA63" s="6">
-        <f t="shared" si="0"/>
-        <v>134.09445033333336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="13.5">
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
@@ -6953,12 +6786,9 @@
       <c r="Z64" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA64" s="6">
-        <f t="shared" si="0"/>
-        <v>134.76387733333331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="13.5">
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7037,12 +6867,9 @@
       <c r="Z65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA65" s="6">
-        <f t="shared" si="0"/>
-        <v>129.99986033333332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="13.5">
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7121,12 +6948,9 @@
       <c r="Z66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA66" s="6">
-        <f t="shared" si="0"/>
-        <v>125.09173466666671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="13.5">
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7205,12 +7029,9 @@
       <c r="Z67" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="0"/>
-        <v>128.55483166666667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="13.5">
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7289,12 +7110,9 @@
       <c r="Z68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="0"/>
-        <v>144.04113599999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="13.5">
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7373,12 +7191,9 @@
       <c r="Z69" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA69" s="6">
-        <f t="shared" ref="AA69:AA132" si="1">AVERAGE(B69:Y69)</f>
-        <v>141.66586966666674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="13.5">
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7457,12 +7272,9 @@
       <c r="Z70" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="1"/>
-        <v>142.48782133333336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="13.5">
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7541,12 +7353,9 @@
       <c r="Z71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="1"/>
-        <v>139.46491066666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="13.5">
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7625,12 +7434,9 @@
       <c r="Z72" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA72" s="6">
-        <f t="shared" si="1"/>
-        <v>139.59575533333324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="13.5">
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7709,12 +7515,9 @@
       <c r="Z73" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="1"/>
-        <v>135.92507366666669</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="13.5">
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7793,12 +7596,9 @@
       <c r="Z74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="1"/>
-        <v>133.52023466666668</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="13.5">
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7877,12 +7677,9 @@
       <c r="Z75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA75" s="6">
-        <f t="shared" si="1"/>
-        <v>138.77346399999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="13.5">
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -7961,12 +7758,9 @@
       <c r="Z76" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA76" s="6">
-        <f t="shared" si="1"/>
-        <v>135.77595499999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="13.5">
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8045,12 +7839,9 @@
       <c r="Z77" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA77" s="6">
-        <f t="shared" si="1"/>
-        <v>133.84405233333328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="13.5">
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8129,12 +7920,9 @@
       <c r="Z78" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA78" s="6">
-        <f t="shared" si="1"/>
-        <v>139.17662199999992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="13.5">
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8213,12 +8001,9 @@
       <c r="Z79" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA79" s="6">
-        <f t="shared" si="1"/>
-        <v>137.98712366666666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="13.5">
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8297,12 +8082,9 @@
       <c r="Z80" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA80" s="6">
-        <f t="shared" si="1"/>
-        <v>132.52540633333331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="13.5">
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8381,12 +8163,9 @@
       <c r="Z81" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA81" s="6">
-        <f t="shared" si="1"/>
-        <v>129.76793799999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="13.5">
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8465,12 +8244,9 @@
       <c r="Z82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA82" s="6">
-        <f t="shared" si="1"/>
-        <v>128.29113300000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="13.5">
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8549,12 +8325,9 @@
       <c r="Z83" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA83" s="6">
-        <f t="shared" si="1"/>
-        <v>125.21203733333338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="13.5">
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8633,12 +8406,9 @@
       <c r="Z84" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA84" s="6">
-        <f t="shared" si="1"/>
-        <v>122.53932900000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="13.5">
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8717,12 +8487,9 @@
       <c r="Z85" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA85" s="6">
-        <f t="shared" si="1"/>
-        <v>111.49704666666668</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="13.5">
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8801,12 +8568,9 @@
       <c r="Z86" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA86" s="6">
-        <f t="shared" si="1"/>
-        <v>104.286873</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="13.5">
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8885,12 +8649,9 @@
       <c r="Z87" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA87" s="6">
-        <f t="shared" si="1"/>
-        <v>96.545084333333349</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="13.5">
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -8969,12 +8730,9 @@
       <c r="Z88" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA88" s="6">
-        <f t="shared" si="1"/>
-        <v>95.485121333333339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="13.5">
+      <c r="AA88" s="6"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9053,12 +8811,9 @@
       <c r="Z89" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA89" s="6">
-        <f t="shared" si="1"/>
-        <v>85.46794766666666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="13.5">
+      <c r="AA89" s="6"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9137,12 +8892,9 @@
       <c r="Z90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA90" s="6">
-        <f t="shared" si="1"/>
-        <v>82.360390333333328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="13.5">
+      <c r="AA90" s="6"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9221,12 +8973,9 @@
       <c r="Z91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA91" s="6">
-        <f t="shared" si="1"/>
-        <v>73.08395933333334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="13.5">
+      <c r="AA91" s="6"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9305,12 +9054,9 @@
       <c r="Z92" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA92" s="6">
-        <f t="shared" si="1"/>
-        <v>69.32490833333334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="13.5">
+      <c r="AA92" s="6"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9389,12 +9135,9 @@
       <c r="Z93" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA93" s="6">
-        <f t="shared" si="1"/>
-        <v>85.567146999999991</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="13.5">
+      <c r="AA93" s="6"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9473,12 +9216,9 @@
       <c r="Z94" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA94" s="6">
-        <f t="shared" si="1"/>
-        <v>69.638986333333321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" ht="13.5">
+      <c r="AA94" s="6"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>120</v>
       </c>
@@ -9557,12 +9297,9 @@
       <c r="Z95" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA95" s="6">
-        <f t="shared" si="1"/>
-        <v>59.808792666666648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" ht="13.5">
+      <c r="AA95" s="6"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>121</v>
       </c>
@@ -9641,12 +9378,9 @@
       <c r="Z96" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA96" s="6">
-        <f t="shared" si="1"/>
-        <v>72.387443999999974</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="13.5">
+      <c r="AA96" s="6"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>122</v>
       </c>
@@ -9725,12 +9459,9 @@
       <c r="Z97" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA97" s="6">
-        <f t="shared" si="1"/>
-        <v>69.113572333333323</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="13.5">
+      <c r="AA97" s="6"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>123</v>
       </c>
@@ -9809,12 +9540,9 @@
       <c r="Z98" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA98" s="6">
-        <f t="shared" si="1"/>
-        <v>62.786015333333332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="13.5">
+      <c r="AA98" s="6"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>124</v>
       </c>
@@ -9893,12 +9621,9 @@
       <c r="Z99" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA99" s="6">
-        <f t="shared" si="1"/>
-        <v>43.14911399999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="13.5">
+      <c r="AA99" s="6"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>125</v>
       </c>
@@ -9977,12 +9702,9 @@
       <c r="Z100" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA100" s="6">
-        <f t="shared" si="1"/>
-        <v>40.113544999999995</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" ht="13.5">
+      <c r="AA100" s="6"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>126</v>
       </c>
@@ -10061,12 +9783,9 @@
       <c r="Z101" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA101" s="6">
-        <f t="shared" si="1"/>
-        <v>51.067547666666655</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="13.5">
+      <c r="AA101" s="6"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>127</v>
       </c>
@@ -10145,12 +9864,9 @@
       <c r="Z102" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA102" s="6">
-        <f t="shared" si="1"/>
-        <v>39.349792000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" ht="13.5">
+      <c r="AA102" s="6"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>128</v>
       </c>
@@ -10229,12 +9945,9 @@
       <c r="Z103" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA103" s="6">
-        <f t="shared" si="1"/>
-        <v>52.169835333333332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="13.5">
+      <c r="AA103" s="6"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>129</v>
       </c>
@@ -10313,12 +10026,9 @@
       <c r="Z104" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA104" s="6">
-        <f t="shared" si="1"/>
-        <v>48.155485999999996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="13.5">
+      <c r="AA104" s="6"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>130</v>
       </c>
@@ -10397,12 +10107,9 @@
       <c r="Z105" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA105" s="6">
-        <f t="shared" si="1"/>
-        <v>41.977069666666665</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="13.5">
+      <c r="AA105" s="6"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>131</v>
       </c>
@@ -10481,12 +10188,9 @@
       <c r="Z106" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA106" s="6">
-        <f t="shared" si="1"/>
-        <v>51.654130333333313</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="13.5">
+      <c r="AA106" s="6"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>132</v>
       </c>
@@ -10565,12 +10269,9 @@
       <c r="Z107" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA107" s="6">
-        <f t="shared" si="1"/>
-        <v>56.657092333333345</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="13.5">
+      <c r="AA107" s="6"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>133</v>
       </c>
@@ -10649,12 +10350,9 @@
       <c r="Z108" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA108" s="6">
-        <f t="shared" si="1"/>
-        <v>48.047158666666668</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" ht="13.5">
+      <c r="AA108" s="6"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
@@ -10733,12 +10431,9 @@
       <c r="Z109" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA109" s="6">
-        <f t="shared" si="1"/>
-        <v>46.232613666666659</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" ht="13.5">
+      <c r="AA109" s="6"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>135</v>
       </c>
@@ -10817,12 +10512,9 @@
       <c r="Z110" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA110" s="6">
-        <f t="shared" si="1"/>
-        <v>60.804528666666663</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" ht="13.5">
+      <c r="AA110" s="6"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>136</v>
       </c>
@@ -10901,12 +10593,9 @@
       <c r="Z111" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA111" s="6">
-        <f t="shared" si="1"/>
-        <v>59.277608333333312</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="13.5">
+      <c r="AA111" s="6"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>137</v>
       </c>
@@ -10985,12 +10674,9 @@
       <c r="Z112" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA112" s="6">
-        <f t="shared" si="1"/>
-        <v>61.789034999999991</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" ht="13.5">
+      <c r="AA112" s="6"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>138</v>
       </c>
@@ -11069,12 +10755,9 @@
       <c r="Z113" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA113" s="6">
-        <f t="shared" si="1"/>
-        <v>71.133640666666636</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" ht="13.5">
+      <c r="AA113" s="6"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
@@ -11153,12 +10836,9 @@
       <c r="Z114" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA114" s="6">
-        <f t="shared" si="1"/>
-        <v>62.204628000000035</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" ht="13.5">
+      <c r="AA114" s="6"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>140</v>
       </c>
@@ -11237,12 +10917,9 @@
       <c r="Z115" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA115" s="6">
-        <f t="shared" si="1"/>
-        <v>67.561818333333349</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" ht="13.5">
+      <c r="AA115" s="6"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>141</v>
       </c>
@@ -11321,12 +10998,9 @@
       <c r="Z116" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA116" s="6">
-        <f t="shared" si="1"/>
-        <v>60.586149666666664</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" ht="13.5">
+      <c r="AA116" s="6"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>142</v>
       </c>
@@ -11405,12 +11079,9 @@
       <c r="Z117" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA117" s="6">
-        <f t="shared" si="1"/>
-        <v>85.199013666666644</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="13.5">
+      <c r="AA117" s="6"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>143</v>
       </c>
@@ -11489,12 +11160,9 @@
       <c r="Z118" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA118" s="6">
-        <f t="shared" si="1"/>
-        <v>91.828870666666674</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" ht="13.5">
+      <c r="AA118" s="6"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>144</v>
       </c>
@@ -11573,12 +11241,9 @@
       <c r="Z119" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA119" s="6">
-        <f t="shared" si="1"/>
-        <v>69.148879333333312</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="13.5">
+      <c r="AA119" s="6"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>145</v>
       </c>
@@ -11657,12 +11322,9 @@
       <c r="Z120" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA120" s="6">
-        <f t="shared" si="1"/>
-        <v>53.367456333333315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" ht="13.5">
+      <c r="AA120" s="6"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>146</v>
       </c>
@@ -11741,12 +11403,9 @@
       <c r="Z121" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA121" s="6">
-        <f t="shared" si="1"/>
-        <v>49.823866333333321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="13.5">
+      <c r="AA121" s="6"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>147</v>
       </c>
@@ -11825,12 +11484,9 @@
       <c r="Z122" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA122" s="6">
-        <f t="shared" si="1"/>
-        <v>43.272159666666653</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" ht="13.5">
+      <c r="AA122" s="6"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>148</v>
       </c>
@@ -11909,12 +11565,9 @@
       <c r="Z123" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA123" s="6">
-        <f t="shared" si="1"/>
-        <v>40.835182333333307</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" ht="13.5">
+      <c r="AA123" s="6"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>149</v>
       </c>
@@ -11993,12 +11646,9 @@
       <c r="Z124" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA124" s="6">
-        <f t="shared" si="1"/>
-        <v>50.326179666666683</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" ht="13.5">
+      <c r="AA124" s="6"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>150</v>
       </c>
@@ -12077,12 +11727,9 @@
       <c r="Z125" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA125" s="6">
-        <f t="shared" si="1"/>
-        <v>39.090941666666673</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" ht="13.5">
+      <c r="AA125" s="6"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>151</v>
       </c>
@@ -12161,12 +11808,9 @@
       <c r="Z126" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA126" s="6">
-        <f t="shared" si="1"/>
-        <v>47.220639666666671</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" ht="13.5">
+      <c r="AA126" s="6"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>152</v>
       </c>
@@ -12245,12 +11889,9 @@
       <c r="Z127" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA127" s="6">
-        <f t="shared" si="1"/>
-        <v>46.809790666666679</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" ht="13.5">
+      <c r="AA127" s="6"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>153</v>
       </c>
@@ -12329,12 +11970,9 @@
       <c r="Z128" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA128" s="6">
-        <f t="shared" si="1"/>
-        <v>56.518589333333331</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" ht="13.5">
+      <c r="AA128" s="6"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>154</v>
       </c>
@@ -12413,12 +12051,9 @@
       <c r="Z129" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA129" s="6">
-        <f t="shared" si="1"/>
-        <v>45.640926000000007</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" ht="13.5">
+      <c r="AA129" s="6"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>155</v>
       </c>
@@ -12497,12 +12132,9 @@
       <c r="Z130" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA130" s="6">
-        <f t="shared" si="1"/>
-        <v>48.159410333333334</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" ht="13.5">
+      <c r="AA130" s="6"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>156</v>
       </c>
@@ -12581,12 +12213,9 @@
       <c r="Z131" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA131" s="6">
-        <f t="shared" si="1"/>
-        <v>45.721338999999993</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" ht="13.5">
+      <c r="AA131" s="6"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>157</v>
       </c>
@@ -12665,12 +12294,9 @@
       <c r="Z132" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA132" s="6">
-        <f t="shared" si="1"/>
-        <v>47.84949233333333</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" ht="13.5">
+      <c r="AA132" s="6"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>158</v>
       </c>
@@ -12749,12 +12375,9 @@
       <c r="Z133" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA133" s="6">
-        <f t="shared" ref="AA133:AA196" si="2">AVERAGE(B133:Y133)</f>
-        <v>49.014138000000024</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" ht="13.5">
+      <c r="AA133" s="6"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>159</v>
       </c>
@@ -12833,12 +12456,9 @@
       <c r="Z134" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA134" s="6">
-        <f t="shared" si="2"/>
-        <v>51.350312666666674</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" ht="13.5">
+      <c r="AA134" s="6"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>160</v>
       </c>
@@ -12917,12 +12537,9 @@
       <c r="Z135" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA135" s="6">
-        <f t="shared" si="2"/>
-        <v>47.270661333333344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" ht="13.5">
+      <c r="AA135" s="6"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>161</v>
       </c>
@@ -13001,12 +12618,9 @@
       <c r="Z136" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA136" s="6">
-        <f t="shared" si="2"/>
-        <v>39.492495666666677</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" ht="13.5">
+      <c r="AA136" s="6"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>162</v>
       </c>
@@ -13085,12 +12699,9 @@
       <c r="Z137" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA137" s="6">
-        <f t="shared" si="2"/>
-        <v>38.397980000000004</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" ht="13.5">
+      <c r="AA137" s="6"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>163</v>
       </c>
@@ -13169,12 +12780,9 @@
       <c r="Z138" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA138" s="6">
-        <f t="shared" si="2"/>
-        <v>45.004425000000019</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" ht="13.5">
+      <c r="AA138" s="6"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>164</v>
       </c>
@@ -13253,12 +12861,9 @@
       <c r="Z139" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA139" s="6">
-        <f t="shared" si="2"/>
-        <v>51.466001000000006</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" ht="13.5">
+      <c r="AA139" s="6"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>165</v>
       </c>
@@ -13337,12 +12942,9 @@
       <c r="Z140" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA140" s="6">
-        <f t="shared" si="2"/>
-        <v>54.631606000000005</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" ht="13.5">
+      <c r="AA140" s="6"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>166</v>
       </c>
@@ -13421,12 +13023,9 @@
       <c r="Z141" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA141" s="6">
-        <f t="shared" si="2"/>
-        <v>47.891802000000013</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" ht="13.5">
+      <c r="AA141" s="6"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>167</v>
       </c>
@@ -13505,12 +13104,9 @@
       <c r="Z142" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA142" s="6">
-        <f t="shared" si="2"/>
-        <v>48.137489333333328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" ht="13.5">
+      <c r="AA142" s="6"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
@@ -13589,12 +13185,9 @@
       <c r="Z143" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA143" s="6">
-        <f t="shared" si="2"/>
-        <v>40.109428999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" ht="13.5">
+      <c r="AA143" s="6"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>169</v>
       </c>
@@ -13673,12 +13266,9 @@
       <c r="Z144" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA144" s="6">
-        <f t="shared" si="2"/>
-        <v>39.02409833333332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" ht="13.5">
+      <c r="AA144" s="6"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>170</v>
       </c>
@@ -13757,12 +13347,9 @@
       <c r="Z145" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA145" s="6">
-        <f t="shared" si="2"/>
-        <v>39.814753666666668</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" ht="13.5">
+      <c r="AA145" s="6"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>171</v>
       </c>
@@ -13841,12 +13428,9 @@
       <c r="Z146" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA146" s="6">
-        <f t="shared" si="2"/>
-        <v>47.280520666666682</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" ht="13.5">
+      <c r="AA146" s="6"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>172</v>
       </c>
@@ -13925,12 +13509,9 @@
       <c r="Z147" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA147" s="6">
-        <f t="shared" si="2"/>
-        <v>49.925655333333331</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" ht="13.5">
+      <c r="AA147" s="6"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>173</v>
       </c>
@@ -14009,12 +13590,9 @@
       <c r="Z148" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA148" s="6">
-        <f t="shared" si="2"/>
-        <v>63.974796000000019</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" ht="13.5">
+      <c r="AA148" s="6"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>174</v>
       </c>
@@ -14093,12 +13671,9 @@
       <c r="Z149" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA149" s="6">
-        <f t="shared" si="2"/>
-        <v>54.016499666666668</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="13.5">
+      <c r="AA149" s="6"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>175</v>
       </c>
@@ -14177,12 +13752,9 @@
       <c r="Z150" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA150" s="6">
-        <f t="shared" si="2"/>
-        <v>40.236554666666656</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" ht="13.5">
+      <c r="AA150" s="6"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>176</v>
       </c>
@@ -14261,12 +13833,9 @@
       <c r="Z151" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA151" s="6">
-        <f t="shared" si="2"/>
-        <v>38.585667999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="13.5">
+      <c r="AA151" s="6"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>177</v>
       </c>
@@ -14345,12 +13914,9 @@
       <c r="Z152" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA152" s="6">
-        <f t="shared" si="2"/>
-        <v>46.816206000000015</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" ht="13.5">
+      <c r="AA152" s="6"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>178</v>
       </c>
@@ -14429,12 +13995,9 @@
       <c r="Z153" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA153" s="6">
-        <f t="shared" si="2"/>
-        <v>49.559896666666667</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" ht="13.5">
+      <c r="AA153" s="6"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>179</v>
       </c>
@@ -14513,12 +14076,9 @@
       <c r="Z154" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA154" s="6">
-        <f t="shared" si="2"/>
-        <v>48.113955333333337</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" ht="13.5">
+      <c r="AA154" s="6"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>180</v>
       </c>
@@ -14597,12 +14157,9 @@
       <c r="Z155" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA155" s="6">
-        <f t="shared" si="2"/>
-        <v>45.493401666666649</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" ht="13.5">
+      <c r="AA155" s="6"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>181</v>
       </c>
@@ -14681,12 +14238,9 @@
       <c r="Z156" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA156" s="6">
-        <f t="shared" si="2"/>
-        <v>40.024731666666682</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27" ht="13.5">
+      <c r="AA156" s="6"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
@@ -14765,12 +14319,9 @@
       <c r="Z157" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA157" s="6">
-        <f t="shared" si="2"/>
-        <v>39.503952999999981</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" ht="13.5">
+      <c r="AA157" s="6"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>183</v>
       </c>
@@ -14849,12 +14400,9 @@
       <c r="Z158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA158" s="6">
-        <f t="shared" si="2"/>
-        <v>39.922345000000007</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" ht="13.5">
+      <c r="AA158" s="6"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>184</v>
       </c>
@@ -14933,12 +14481,9 @@
       <c r="Z159" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA159" s="6">
-        <f t="shared" si="2"/>
-        <v>45.56508766666667</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" ht="13.5">
+      <c r="AA159" s="6"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>185</v>
       </c>
@@ -15017,12 +14562,9 @@
       <c r="Z160" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA160" s="6">
-        <f t="shared" si="2"/>
-        <v>51.105542000000007</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="13.5">
+      <c r="AA160" s="6"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>186</v>
       </c>
@@ -15101,12 +14643,9 @@
       <c r="Z161" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA161" s="6">
-        <f t="shared" si="2"/>
-        <v>107.06050966666665</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" ht="13.5">
+      <c r="AA161" s="6"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>187</v>
       </c>
@@ -15185,12 +14724,9 @@
       <c r="Z162" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA162" s="6">
-        <f t="shared" si="2"/>
-        <v>85.44807066666668</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" ht="13.5">
+      <c r="AA162" s="6"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>188</v>
       </c>
@@ -15269,12 +14805,9 @@
       <c r="Z163" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA163" s="6">
-        <f t="shared" si="2"/>
-        <v>78.526098333333337</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27" ht="13.5">
+      <c r="AA163" s="6"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>189</v>
       </c>
@@ -15353,12 +14886,9 @@
       <c r="Z164" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA164" s="6">
-        <f t="shared" si="2"/>
-        <v>100.66200333333336</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" ht="13.5">
+      <c r="AA164" s="6"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>190</v>
       </c>
@@ -15437,12 +14967,9 @@
       <c r="Z165" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA165" s="6">
-        <f t="shared" si="2"/>
-        <v>99.616729000000007</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" ht="13.5">
+      <c r="AA165" s="6"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>191</v>
       </c>
@@ -15521,12 +15048,9 @@
       <c r="Z166" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA166" s="6">
-        <f t="shared" si="2"/>
-        <v>107.43537400000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" ht="13.5">
+      <c r="AA166" s="6"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>192</v>
       </c>
@@ -15605,12 +15129,9 @@
       <c r="Z167" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA167" s="6">
-        <f t="shared" si="2"/>
-        <v>124.01761233333332</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="13.5">
+      <c r="AA167" s="6"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>193</v>
       </c>
@@ -15689,12 +15210,9 @@
       <c r="Z168" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA168" s="6">
-        <f t="shared" si="2"/>
-        <v>128.13445566666664</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" ht="13.5">
+      <c r="AA168" s="6"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>194</v>
       </c>
@@ -15773,12 +15291,9 @@
       <c r="Z169" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA169" s="6">
-        <f t="shared" si="2"/>
-        <v>126.52627200000005</v>
-      </c>
-    </row>
-    <row r="170" spans="1:27" ht="13.5">
+      <c r="AA169" s="6"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>195</v>
       </c>
@@ -15857,12 +15372,9 @@
       <c r="Z170" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA170" s="6">
-        <f t="shared" si="2"/>
-        <v>125.80481366666675</v>
-      </c>
-    </row>
-    <row r="171" spans="1:27" ht="13.5">
+      <c r="AA170" s="6"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>196</v>
       </c>
@@ -15941,12 +15453,9 @@
       <c r="Z171" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA171" s="6">
-        <f t="shared" si="2"/>
-        <v>114.6000833333333</v>
-      </c>
-    </row>
-    <row r="172" spans="1:27" ht="13.5">
+      <c r="AA171" s="6"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>197</v>
       </c>
@@ -16025,12 +15534,9 @@
       <c r="Z172" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA172" s="6">
-        <f t="shared" si="2"/>
-        <v>101.83050233333331</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="13.5">
+      <c r="AA172" s="6"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>198</v>
       </c>
@@ -16109,12 +15615,9 @@
       <c r="Z173" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA173" s="6">
-        <f t="shared" si="2"/>
-        <v>87.349669000000006</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" ht="13.5">
+      <c r="AA173" s="6"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>199</v>
       </c>
@@ -16193,12 +15696,9 @@
       <c r="Z174" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA174" s="6">
-        <f t="shared" si="2"/>
-        <v>89.458761333333328</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" ht="13.5">
+      <c r="AA174" s="6"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>200</v>
       </c>
@@ -16277,12 +15777,9 @@
       <c r="Z175" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA175" s="6">
-        <f t="shared" si="2"/>
-        <v>87.590002333333317</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" ht="13.5">
+      <c r="AA175" s="6"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>201</v>
       </c>
@@ -16361,12 +15858,9 @@
       <c r="Z176" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA176" s="6">
-        <f t="shared" si="2"/>
-        <v>87.653154999999984</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27" ht="13.5">
+      <c r="AA176" s="6"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>202</v>
       </c>
@@ -16445,12 +15939,9 @@
       <c r="Z177" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA177" s="6">
-        <f t="shared" si="2"/>
-        <v>83.635581000000002</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27" ht="13.5">
+      <c r="AA177" s="6"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>203</v>
       </c>
@@ -16529,12 +16020,9 @@
       <c r="Z178" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA178" s="6">
-        <f t="shared" si="2"/>
-        <v>76.449239333333296</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" ht="13.5">
+      <c r="AA178" s="6"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>204</v>
       </c>
@@ -16613,12 +16101,9 @@
       <c r="Z179" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA179" s="6">
-        <f t="shared" si="2"/>
-        <v>70.711814000000004</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" ht="13.5">
+      <c r="AA179" s="6"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>205</v>
       </c>
@@ -16697,12 +16182,9 @@
       <c r="Z180" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA180" s="6">
-        <f t="shared" si="2"/>
-        <v>78.773013999999975</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" ht="13.5">
+      <c r="AA180" s="6"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>206</v>
       </c>
@@ -16781,12 +16263,9 @@
       <c r="Z181" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA181" s="6">
-        <f t="shared" si="2"/>
-        <v>74.126354000000006</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27" ht="13.5">
+      <c r="AA181" s="6"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>207</v>
       </c>
@@ -16865,12 +16344,9 @@
       <c r="Z182" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA182" s="6">
-        <f t="shared" si="2"/>
-        <v>88.952674666666709</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" ht="13.5">
+      <c r="AA182" s="6"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>208</v>
       </c>
@@ -16949,12 +16425,9 @@
       <c r="Z183" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA183" s="6">
-        <f t="shared" si="2"/>
-        <v>98.547086666666644</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27" ht="13.5">
+      <c r="AA183" s="6"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>209</v>
       </c>
@@ -17033,12 +16506,9 @@
       <c r="Z184" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA184" s="6">
-        <f t="shared" si="2"/>
-        <v>100.13379633333335</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" ht="13.5">
+      <c r="AA184" s="6"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>210</v>
       </c>
@@ -17117,12 +16587,9 @@
       <c r="Z185" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA185" s="6">
-        <f t="shared" si="2"/>
-        <v>81.415940666666671</v>
-      </c>
-    </row>
-    <row r="186" spans="1:27" ht="13.5">
+      <c r="AA185" s="6"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>211</v>
       </c>
@@ -17201,12 +16668,9 @@
       <c r="Z186" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA186" s="6">
-        <f t="shared" si="2"/>
-        <v>77.937269000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" ht="13.5">
+      <c r="AA186" s="6"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>213</v>
       </c>
@@ -17285,12 +16749,9 @@
       <c r="Z187" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA187" s="6">
-        <f t="shared" si="2"/>
-        <v>77.889523666666648</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" ht="13.5">
+      <c r="AA187" s="6"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>214</v>
       </c>
@@ -17369,12 +16830,9 @@
       <c r="Z188" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA188" s="6">
-        <f t="shared" si="2"/>
-        <v>82.155019666666647</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" ht="13.5">
+      <c r="AA188" s="6"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>215</v>
       </c>
@@ -17453,12 +16911,9 @@
       <c r="Z189" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA189" s="6">
-        <f t="shared" si="2"/>
-        <v>70.746617666666637</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" ht="13.5">
+      <c r="AA189" s="6"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>216</v>
       </c>
@@ -17537,12 +16992,9 @@
       <c r="Z190" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA190" s="6">
-        <f t="shared" si="2"/>
-        <v>77.558083000000039</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" ht="13.5">
+      <c r="AA190" s="6"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>217</v>
       </c>
@@ -17621,12 +17073,9 @@
       <c r="Z191" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA191" s="6">
-        <f t="shared" si="2"/>
-        <v>77.603286666666648</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" ht="13.5">
+      <c r="AA191" s="6"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>218</v>
       </c>
@@ -17705,12 +17154,9 @@
       <c r="Z192" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA192" s="6">
-        <f t="shared" si="2"/>
-        <v>66.402622000000008</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" ht="13.5">
+      <c r="AA192" s="6"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>219</v>
       </c>
@@ -17789,12 +17235,9 @@
       <c r="Z193" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA193" s="6">
-        <f t="shared" si="2"/>
-        <v>55.512158666666686</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27" ht="13.5">
+      <c r="AA193" s="6"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>220</v>
       </c>
@@ -17873,12 +17316,9 @@
       <c r="Z194" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA194" s="6">
-        <f t="shared" si="2"/>
-        <v>65.351448333333323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" ht="13.5">
+      <c r="AA194" s="6"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>221</v>
       </c>
@@ -17957,12 +17397,9 @@
       <c r="Z195" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA195" s="6">
-        <f t="shared" si="2"/>
-        <v>72.153838666666701</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27" ht="13.5">
+      <c r="AA195" s="6"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>222</v>
       </c>
@@ -18041,12 +17478,9 @@
       <c r="Z196" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA196" s="6">
-        <f t="shared" si="2"/>
-        <v>74.626244666666693</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27" ht="13.5">
+      <c r="AA196" s="6"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>223</v>
       </c>
@@ -18125,12 +17559,9 @@
       <c r="Z197" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA197" s="6">
-        <f t="shared" ref="AA197:AA260" si="3">AVERAGE(B197:Y197)</f>
-        <v>70.19851166666669</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27" ht="13.5">
+      <c r="AA197" s="6"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>224</v>
       </c>
@@ -18209,12 +17640,9 @@
       <c r="Z198" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA198" s="6">
-        <f t="shared" si="3"/>
-        <v>67.748893666666703</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27" ht="13.5">
+      <c r="AA198" s="6"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>225</v>
       </c>
@@ -18293,12 +17721,9 @@
       <c r="Z199" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA199" s="6">
-        <f t="shared" si="3"/>
-        <v>58.225895999999985</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" ht="13.5">
+      <c r="AA199" s="6"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>226</v>
       </c>
@@ -18377,12 +17802,9 @@
       <c r="Z200" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA200" s="6">
-        <f t="shared" si="3"/>
-        <v>55.149056666666667</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27" ht="13.5">
+      <c r="AA200" s="6"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>227</v>
       </c>
@@ -18461,12 +17883,9 @@
       <c r="Z201" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA201" s="6">
-        <f t="shared" si="3"/>
-        <v>63.755096999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" ht="13.5">
+      <c r="AA201" s="6"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>228</v>
       </c>
@@ -18545,12 +17964,9 @@
       <c r="Z202" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA202" s="6">
-        <f t="shared" si="3"/>
-        <v>66.222545000000011</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" ht="13.5">
+      <c r="AA202" s="6"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>229</v>
       </c>
@@ -18629,12 +18045,9 @@
       <c r="Z203" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA203" s="6">
-        <f t="shared" si="3"/>
-        <v>85.827482999999972</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" ht="13.5">
+      <c r="AA203" s="6"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>230</v>
       </c>
@@ -18713,12 +18126,9 @@
       <c r="Z204" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA204" s="6">
-        <f t="shared" si="3"/>
-        <v>87.867733666666666</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="13.5">
+      <c r="AA204" s="6"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
@@ -18797,12 +18207,9 @@
       <c r="Z205" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA205" s="6">
-        <f t="shared" si="3"/>
-        <v>73.629113000000032</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="13.5">
+      <c r="AA205" s="6"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>232</v>
       </c>
@@ -18881,12 +18288,9 @@
       <c r="Z206" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA206" s="6">
-        <f t="shared" si="3"/>
-        <v>59.83888666666666</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="13.5">
+      <c r="AA206" s="6"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>233</v>
       </c>
@@ -18965,12 +18369,9 @@
       <c r="Z207" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA207" s="6">
-        <f t="shared" si="3"/>
-        <v>46.077537999999983</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="13.5">
+      <c r="AA207" s="6"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>234</v>
       </c>
@@ -19049,12 +18450,9 @@
       <c r="Z208" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA208" s="6">
-        <f t="shared" si="3"/>
-        <v>63.50837233333332</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="13.5">
+      <c r="AA208" s="6"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>235</v>
       </c>
@@ -19133,12 +18531,9 @@
       <c r="Z209" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA209" s="6">
-        <f t="shared" si="3"/>
-        <v>65.874038333333303</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="13.5">
+      <c r="AA209" s="6"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>236</v>
       </c>
@@ -19217,12 +18612,9 @@
       <c r="Z210" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA210" s="6">
-        <f t="shared" si="3"/>
-        <v>77.722924999999989</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="13.5">
+      <c r="AA210" s="6"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>237</v>
       </c>
@@ -19301,12 +18693,9 @@
       <c r="Z211" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA211" s="6">
-        <f t="shared" si="3"/>
-        <v>101.33511533333335</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="13.5">
+      <c r="AA211" s="6"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>238</v>
       </c>
@@ -19385,12 +18774,9 @@
       <c r="Z212" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA212" s="6">
-        <f t="shared" si="3"/>
-        <v>126.95792599999997</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="13.5">
+      <c r="AA212" s="6"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>239</v>
       </c>
@@ -19469,12 +18855,9 @@
       <c r="Z213" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA213" s="6">
-        <f t="shared" si="3"/>
-        <v>114.27728333333333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="13.5">
+      <c r="AA213" s="6"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>240</v>
       </c>
@@ -19553,12 +18936,9 @@
       <c r="Z214" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA214" s="6">
-        <f t="shared" si="3"/>
-        <v>115.71094200000003</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="13.5">
+      <c r="AA214" s="6"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>241</v>
       </c>
@@ -19637,12 +19017,9 @@
       <c r="Z215" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA215" s="6">
-        <f t="shared" si="3"/>
-        <v>135.71613600000001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="13.5">
+      <c r="AA215" s="6"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>242</v>
       </c>
@@ -19721,12 +19098,9 @@
       <c r="Z216" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA216" s="6">
-        <f t="shared" si="3"/>
-        <v>120.92431900000004</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="13.5">
+      <c r="AA216" s="6"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19805,12 +19179,9 @@
       <c r="Z217" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA217" s="6">
-        <f t="shared" si="3"/>
-        <v>147.97752766666662</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="13.5">
+      <c r="AA217" s="6"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19889,12 +19260,9 @@
       <c r="Z218" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA218" s="6">
-        <f t="shared" si="3"/>
-        <v>138.33994433333336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="13.5">
+      <c r="AA218" s="6"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -19973,12 +19341,9 @@
       <c r="Z219" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA219" s="6">
-        <f t="shared" si="3"/>
-        <v>128.08504333333335</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="13.5">
+      <c r="AA219" s="6"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20057,12 +19422,9 @@
       <c r="Z220" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA220" s="6">
-        <f t="shared" si="3"/>
-        <v>140.74525233333341</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="13.5">
+      <c r="AA220" s="6"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20141,12 +19503,9 @@
       <c r="Z221" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA221" s="6">
-        <f t="shared" si="3"/>
-        <v>119.86087899999997</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="13.5">
+      <c r="AA221" s="6"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20225,12 +19584,9 @@
       <c r="Z222" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA222" s="6">
-        <f t="shared" si="3"/>
-        <v>134.96435299999996</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" ht="13.5">
+      <c r="AA222" s="6"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20309,12 +19665,9 @@
       <c r="Z223" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA223" s="6">
-        <f t="shared" si="3"/>
-        <v>118.69617466666669</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" ht="13.5">
+      <c r="AA223" s="6"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20393,12 +19746,9 @@
       <c r="Z224" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA224" s="6">
-        <f t="shared" si="3"/>
-        <v>131.7848226666666</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" ht="13.5">
+      <c r="AA224" s="6"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20477,12 +19827,9 @@
       <c r="Z225" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA225" s="6">
-        <f t="shared" si="3"/>
-        <v>135.04640999999995</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" ht="13.5">
+      <c r="AA225" s="6"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20561,12 +19908,9 @@
       <c r="Z226" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA226" s="6">
-        <f t="shared" si="3"/>
-        <v>146.30275066666675</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" ht="13.5">
+      <c r="AA226" s="6"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20645,12 +19989,9 @@
       <c r="Z227" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA227" s="6">
-        <f t="shared" si="3"/>
-        <v>147.67850533333328</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" ht="13.5">
+      <c r="AA227" s="6"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20729,12 +20070,9 @@
       <c r="Z228" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA228" s="6">
-        <f t="shared" si="3"/>
-        <v>143.23146900000009</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" ht="13.5">
+      <c r="AA228" s="6"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20813,12 +20151,9 @@
       <c r="Z229" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA229" s="6">
-        <f t="shared" si="3"/>
-        <v>172.62144766666663</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" ht="13.5">
+      <c r="AA229" s="6"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20897,12 +20232,9 @@
       <c r="Z230" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA230" s="6">
-        <f t="shared" si="3"/>
-        <v>169.00294300000004</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" ht="13.5">
+      <c r="AA230" s="6"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -20981,12 +20313,9 @@
       <c r="Z231" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA231" s="6">
-        <f t="shared" si="3"/>
-        <v>154.94301399999998</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" ht="13.5">
+      <c r="AA231" s="6"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21065,12 +20394,9 @@
       <c r="Z232" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA232" s="6">
-        <f t="shared" si="3"/>
-        <v>155.59141333333338</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" ht="13.5">
+      <c r="AA232" s="6"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21149,12 +20475,9 @@
       <c r="Z233" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA233" s="6">
-        <f t="shared" si="3"/>
-        <v>140.99741199999997</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" ht="13.5">
+      <c r="AA233" s="6"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21233,12 +20556,9 @@
       <c r="Z234" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA234" s="6">
-        <f t="shared" si="3"/>
-        <v>133.3775903333333</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" ht="13.5">
+      <c r="AA234" s="6"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21317,12 +20637,9 @@
       <c r="Z235" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA235" s="6">
-        <f t="shared" si="3"/>
-        <v>120.98565566666667</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" ht="13.5">
+      <c r="AA235" s="6"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21401,12 +20718,9 @@
       <c r="Z236" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA236" s="6">
-        <f t="shared" si="3"/>
-        <v>119.91345833333327</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" ht="13.5">
+      <c r="AA236" s="6"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21485,12 +20799,9 @@
       <c r="Z237" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA237" s="6">
-        <f t="shared" si="3"/>
-        <v>129.09135300000003</v>
-      </c>
-    </row>
-    <row r="238" spans="1:27" ht="13.5">
+      <c r="AA237" s="6"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21569,12 +20880,9 @@
       <c r="Z238" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA238" s="6">
-        <f t="shared" si="3"/>
-        <v>126.73192800000004</v>
-      </c>
-    </row>
-    <row r="239" spans="1:27" ht="13.5">
+      <c r="AA238" s="6"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21653,12 +20961,9 @@
       <c r="Z239" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA239" s="6">
-        <f t="shared" si="3"/>
-        <v>127.09498999999998</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" ht="13.5">
+      <c r="AA239" s="6"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21737,12 +21042,9 @@
       <c r="Z240" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA240" s="6">
-        <f t="shared" si="3"/>
-        <v>130.11943166666663</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27" ht="13.5">
+      <c r="AA240" s="6"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21821,12 +21123,9 @@
       <c r="Z241" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA241" s="6">
-        <f t="shared" si="3"/>
-        <v>128.74538866666663</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27" ht="13.5">
+      <c r="AA241" s="6"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21905,12 +21204,9 @@
       <c r="Z242" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA242" s="6">
-        <f t="shared" si="3"/>
-        <v>131.40379966666669</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27" ht="13.5">
+      <c r="AA242" s="6"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -21989,12 +21285,9 @@
       <c r="Z243" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA243" s="6">
-        <f t="shared" si="3"/>
-        <v>154.16253733333335</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27" ht="13.5">
+      <c r="AA243" s="6"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22073,12 +21366,9 @@
       <c r="Z244" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA244" s="6">
-        <f t="shared" si="3"/>
-        <v>150.13273633333338</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27" ht="13.5">
+      <c r="AA244" s="6"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22157,12 +21447,9 @@
       <c r="Z245" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA245" s="6">
-        <f t="shared" si="3"/>
-        <v>147.32523633333332</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27" ht="13.5">
+      <c r="AA245" s="6"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22241,12 +21528,9 @@
       <c r="Z246" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA246" s="6">
-        <f t="shared" si="3"/>
-        <v>148.25405566666666</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27" ht="13.5">
+      <c r="AA246" s="6"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22325,12 +21609,9 @@
       <c r="Z247" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA247" s="6">
-        <f t="shared" si="3"/>
-        <v>174.92070866666663</v>
-      </c>
-    </row>
-    <row r="248" spans="1:27" ht="13.5">
+      <c r="AA247" s="6"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>274</v>
       </c>
@@ -22409,12 +21690,9 @@
       <c r="Z248" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA248" s="6">
-        <f t="shared" si="3"/>
-        <v>140.70627299999992</v>
-      </c>
-    </row>
-    <row r="249" spans="1:27" ht="13.5">
+      <c r="AA248" s="6"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>275</v>
       </c>
@@ -22493,12 +21771,9 @@
       <c r="Z249" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA249" s="6">
-        <f t="shared" si="3"/>
-        <v>129.00687333333335</v>
-      </c>
-    </row>
-    <row r="250" spans="1:27" ht="13.5">
+      <c r="AA249" s="6"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>276</v>
       </c>
@@ -22577,12 +21852,9 @@
       <c r="Z250" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA250" s="6">
-        <f t="shared" si="3"/>
-        <v>133.31804833333334</v>
-      </c>
-    </row>
-    <row r="251" spans="1:27" ht="13.5">
+      <c r="AA250" s="6"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>277</v>
       </c>
@@ -22661,12 +21933,9 @@
       <c r="Z251" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA251" s="6">
-        <f t="shared" si="3"/>
-        <v>138.64859199999992</v>
-      </c>
-    </row>
-    <row r="252" spans="1:27" ht="13.5">
+      <c r="AA251" s="6"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>278</v>
       </c>
@@ -22745,12 +22014,9 @@
       <c r="Z252" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA252" s="6">
-        <f t="shared" si="3"/>
-        <v>141.39918466666663</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" ht="13.5">
+      <c r="AA252" s="6"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>279</v>
       </c>
@@ -22829,12 +22095,9 @@
       <c r="Z253" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA253" s="6">
-        <f t="shared" si="3"/>
-        <v>163.02049899999994</v>
-      </c>
-    </row>
-    <row r="254" spans="1:27" ht="13.5">
+      <c r="AA253" s="6"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>280</v>
       </c>
@@ -22913,12 +22176,9 @@
       <c r="Z254" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA254" s="6">
-        <f t="shared" si="3"/>
-        <v>153.51756266666661</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27" ht="13.5">
+      <c r="AA254" s="6"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>281</v>
       </c>
@@ -22997,12 +22257,9 @@
       <c r="Z255" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA255" s="6">
-        <f t="shared" si="3"/>
-        <v>157.13419433333326</v>
-      </c>
-    </row>
-    <row r="256" spans="1:27" ht="13.5">
+      <c r="AA255" s="6"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>282</v>
       </c>
@@ -23081,12 +22338,9 @@
       <c r="Z256" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA256" s="6">
-        <f t="shared" si="3"/>
-        <v>152.65680499999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27" ht="13.5">
+      <c r="AA256" s="6"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>283</v>
       </c>
@@ -23165,12 +22419,9 @@
       <c r="Z257" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA257" s="6">
-        <f t="shared" si="3"/>
-        <v>156.56246433333337</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27" ht="13.5">
+      <c r="AA257" s="6"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>284</v>
       </c>
@@ -23249,12 +22500,9 @@
       <c r="Z258" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA258" s="6">
-        <f t="shared" si="3"/>
-        <v>167.15366833333329</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27" ht="13.5">
+      <c r="AA258" s="6"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>285</v>
       </c>
@@ -23333,12 +22581,9 @@
       <c r="Z259" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA259" s="6">
-        <f t="shared" si="3"/>
-        <v>159.86640300000008</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27" ht="13.5">
+      <c r="AA259" s="6"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>286</v>
       </c>
@@ -23417,12 +22662,9 @@
       <c r="Z260" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA260" s="6">
-        <f t="shared" si="3"/>
-        <v>163.79215166666657</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27" ht="13.5">
+      <c r="AA260" s="6"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>287</v>
       </c>
@@ -23501,12 +22743,9 @@
       <c r="Z261" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA261" s="6">
-        <f t="shared" ref="AA261:AA324" si="4">AVERAGE(B261:Y261)</f>
-        <v>175.87337699999998</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27" ht="13.5">
+      <c r="AA261" s="6"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>288</v>
       </c>
@@ -23585,12 +22824,9 @@
       <c r="Z262" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA262" s="6">
-        <f t="shared" si="4"/>
-        <v>158.5940056666667</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" ht="13.5">
+      <c r="AA262" s="6"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -23669,12 +22905,9 @@
       <c r="Z263" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA263" s="6">
-        <f t="shared" si="4"/>
-        <v>169.59265266666674</v>
-      </c>
-    </row>
-    <row r="264" spans="1:27" ht="13.5">
+      <c r="AA263" s="6"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>290</v>
       </c>
@@ -23753,12 +22986,9 @@
       <c r="Z264" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA264" s="6">
-        <f t="shared" si="4"/>
-        <v>193.42634999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" ht="13.5">
+      <c r="AA264" s="6"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>291</v>
       </c>
@@ -23837,12 +23067,9 @@
       <c r="Z265" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA265" s="6">
-        <f t="shared" si="4"/>
-        <v>214.991117</v>
-      </c>
-    </row>
-    <row r="266" spans="1:27" ht="13.5">
+      <c r="AA265" s="6"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>292</v>
       </c>
@@ -23921,12 +23148,9 @@
       <c r="Z266" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA266" s="6">
-        <f t="shared" si="4"/>
-        <v>195.55566533333339</v>
-      </c>
-    </row>
-    <row r="267" spans="1:27" ht="13.5">
+      <c r="AA266" s="6"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>293</v>
       </c>
@@ -24005,12 +23229,9 @@
       <c r="Z267" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA267" s="6">
-        <f t="shared" si="4"/>
-        <v>196.03773333333331</v>
-      </c>
-    </row>
-    <row r="268" spans="1:27" ht="13.5">
+      <c r="AA267" s="6"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>294</v>
       </c>
@@ -24089,12 +23310,9 @@
       <c r="Z268" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA268" s="6">
-        <f t="shared" si="4"/>
-        <v>218.48224200000001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:27" ht="13.5">
+      <c r="AA268" s="6"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>295</v>
       </c>
@@ -24173,12 +23391,9 @@
       <c r="Z269" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA269" s="6">
-        <f t="shared" si="4"/>
-        <v>191.87813333333324</v>
-      </c>
-    </row>
-    <row r="270" spans="1:27" ht="13.5">
+      <c r="AA269" s="6"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>296</v>
       </c>
@@ -24257,12 +23472,9 @@
       <c r="Z270" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA270" s="6">
-        <f t="shared" si="4"/>
-        <v>194.54037666666662</v>
-      </c>
-    </row>
-    <row r="271" spans="1:27" ht="13.5">
+      <c r="AA270" s="6"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>297</v>
       </c>
@@ -24341,12 +23553,9 @@
       <c r="Z271" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA271" s="6">
-        <f t="shared" si="4"/>
-        <v>220.33074300000007</v>
-      </c>
-    </row>
-    <row r="272" spans="1:27" ht="13.5">
+      <c r="AA271" s="6"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>298</v>
       </c>
@@ -24425,12 +23634,9 @@
       <c r="Z272" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA272" s="6">
-        <f t="shared" si="4"/>
-        <v>224.02290666666659</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27" ht="13.5">
+      <c r="AA272" s="6"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>299</v>
       </c>
@@ -24509,12 +23715,9 @@
       <c r="Z273" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA273" s="6">
-        <f t="shared" si="4"/>
-        <v>230.27681366666675</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27" ht="13.5">
+      <c r="AA273" s="6"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>300</v>
       </c>
@@ -24593,12 +23796,9 @@
       <c r="Z274" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA274" s="6">
-        <f t="shared" si="4"/>
-        <v>216.51507466666661</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27" ht="13.5">
+      <c r="AA274" s="6"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>301</v>
       </c>
@@ -24677,12 +23877,9 @@
       <c r="Z275" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA275" s="6">
-        <f t="shared" si="4"/>
-        <v>256.99360300000006</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27" ht="13.5">
+      <c r="AA275" s="6"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -24761,12 +23958,9 @@
       <c r="Z276" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA276" s="6">
-        <f t="shared" si="4"/>
-        <v>242.76646133333318</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27" ht="13.5">
+      <c r="AA276" s="6"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>303</v>
       </c>
@@ -24845,12 +24039,9 @@
       <c r="Z277" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA277" s="6">
-        <f t="shared" si="4"/>
-        <v>244.67522899999992</v>
-      </c>
-    </row>
-    <row r="278" spans="1:27" ht="13.5">
+      <c r="AA277" s="6"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>304</v>
       </c>
@@ -24929,12 +24120,9 @@
       <c r="Z278" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA278" s="6">
-        <f t="shared" si="4"/>
-        <v>259.92304466666673</v>
-      </c>
-    </row>
-    <row r="279" spans="1:27" ht="13.5">
+      <c r="AA278" s="6"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>305</v>
       </c>
@@ -25013,12 +24201,9 @@
       <c r="Z279" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA279" s="6">
-        <f t="shared" si="4"/>
-        <v>264.68496333333343</v>
-      </c>
-    </row>
-    <row r="280" spans="1:27" ht="13.5">
+      <c r="AA279" s="6"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>306</v>
       </c>
@@ -25097,12 +24282,9 @@
       <c r="Z280" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA280" s="6">
-        <f t="shared" si="4"/>
-        <v>256.3955150000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:27" ht="13.5">
+      <c r="AA280" s="6"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>307</v>
       </c>
@@ -25181,12 +24363,9 @@
       <c r="Z281" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA281" s="6">
-        <f t="shared" si="4"/>
-        <v>247.32160666666664</v>
-      </c>
-    </row>
-    <row r="282" spans="1:27" ht="13.5">
+      <c r="AA281" s="6"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>308</v>
       </c>
@@ -25265,12 +24444,9 @@
       <c r="Z282" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA282" s="6">
-        <f t="shared" si="4"/>
-        <v>254.4125713333334</v>
-      </c>
-    </row>
-    <row r="283" spans="1:27" ht="13.5">
+      <c r="AA282" s="6"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>309</v>
       </c>
@@ -25349,12 +24525,9 @@
       <c r="Z283" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA283" s="6">
-        <f t="shared" si="4"/>
-        <v>238.12994266666669</v>
-      </c>
-    </row>
-    <row r="284" spans="1:27" ht="13.5">
+      <c r="AA283" s="6"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -25433,12 +24606,9 @@
       <c r="Z284" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA284" s="6">
-        <f t="shared" si="4"/>
-        <v>224.90051466666671</v>
-      </c>
-    </row>
-    <row r="285" spans="1:27" ht="13.5">
+      <c r="AA284" s="6"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>311</v>
       </c>
@@ -25517,12 +24687,9 @@
       <c r="Z285" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA285" s="6">
-        <f t="shared" si="4"/>
-        <v>234.78597866666664</v>
-      </c>
-    </row>
-    <row r="286" spans="1:27" ht="13.5">
+      <c r="AA285" s="6"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>312</v>
       </c>
@@ -25601,12 +24768,9 @@
       <c r="Z286" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA286" s="6">
-        <f t="shared" si="4"/>
-        <v>192.52094199999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:27" ht="13.5">
+      <c r="AA286" s="6"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>313</v>
       </c>
@@ -25685,12 +24849,9 @@
       <c r="Z287" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA287" s="6">
-        <f t="shared" si="4"/>
-        <v>190.56645533333327</v>
-      </c>
-    </row>
-    <row r="288" spans="1:27" ht="13.5">
+      <c r="AA287" s="6"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>314</v>
       </c>
@@ -25769,12 +24930,9 @@
       <c r="Z288" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA288" s="6">
-        <f t="shared" si="4"/>
-        <v>210.60651066666665</v>
-      </c>
-    </row>
-    <row r="289" spans="1:27" ht="13.5">
+      <c r="AA288" s="6"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>315</v>
       </c>
@@ -25853,12 +25011,9 @@
       <c r="Z289" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA289" s="6">
-        <f t="shared" si="4"/>
-        <v>200.94598533333325</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27" ht="13.5">
+      <c r="AA289" s="6"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>316</v>
       </c>
@@ -25937,12 +25092,9 @@
       <c r="Z290" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA290" s="6">
-        <f t="shared" si="4"/>
-        <v>201.9931733333334</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27" ht="13.5">
+      <c r="AA290" s="6"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -26021,12 +25173,9 @@
       <c r="Z291" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA291" s="6">
-        <f t="shared" si="4"/>
-        <v>205.17101200000002</v>
-      </c>
-    </row>
-    <row r="292" spans="1:27" ht="13.5">
+      <c r="AA291" s="6"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>318</v>
       </c>
@@ -26105,12 +25254,9 @@
       <c r="Z292" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA292" s="6">
-        <f t="shared" si="4"/>
-        <v>207.75046366666663</v>
-      </c>
-    </row>
-    <row r="293" spans="1:27" ht="13.5">
+      <c r="AA292" s="6"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>319</v>
       </c>
@@ -26189,12 +25335,9 @@
       <c r="Z293" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA293" s="6">
-        <f t="shared" si="4"/>
-        <v>216.46333933333335</v>
-      </c>
-    </row>
-    <row r="294" spans="1:27" ht="13.5">
+      <c r="AA293" s="6"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>320</v>
       </c>
@@ -26273,12 +25416,9 @@
       <c r="Z294" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA294" s="6">
-        <f t="shared" si="4"/>
-        <v>215.95507266666678</v>
-      </c>
-    </row>
-    <row r="295" spans="1:27" ht="13.5">
+      <c r="AA294" s="6"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>321</v>
       </c>
@@ -26357,12 +25497,9 @@
       <c r="Z295" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA295" s="6">
-        <f t="shared" si="4"/>
-        <v>198.68625633333332</v>
-      </c>
-    </row>
-    <row r="296" spans="1:27" ht="13.5">
+      <c r="AA295" s="6"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>322</v>
       </c>
@@ -26441,12 +25578,9 @@
       <c r="Z296" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA296" s="6">
-        <f t="shared" si="4"/>
-        <v>192.38612766666665</v>
-      </c>
-    </row>
-    <row r="297" spans="1:27" ht="13.5">
+      <c r="AA296" s="6"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -26525,12 +25659,9 @@
       <c r="Z297" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA297" s="6">
-        <f t="shared" si="4"/>
-        <v>180.72645633333329</v>
-      </c>
-    </row>
-    <row r="298" spans="1:27" ht="13.5">
+      <c r="AA297" s="6"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>324</v>
       </c>
@@ -26609,12 +25740,9 @@
       <c r="Z298" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA298" s="6">
-        <f t="shared" si="4"/>
-        <v>186.09772833333329</v>
-      </c>
-    </row>
-    <row r="299" spans="1:27" ht="13.5">
+      <c r="AA298" s="6"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>325</v>
       </c>
@@ -26693,12 +25821,9 @@
       <c r="Z299" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA299" s="6">
-        <f t="shared" si="4"/>
-        <v>164.53175366666662</v>
-      </c>
-    </row>
-    <row r="300" spans="1:27" ht="13.5">
+      <c r="AA299" s="6"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>326</v>
       </c>
@@ -26777,12 +25902,9 @@
       <c r="Z300" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA300" s="6">
-        <f t="shared" si="4"/>
-        <v>160.06393700000004</v>
-      </c>
-    </row>
-    <row r="301" spans="1:27" ht="13.5">
+      <c r="AA300" s="6"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>327</v>
       </c>
@@ -26861,12 +25983,9 @@
       <c r="Z301" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA301" s="6">
-        <f t="shared" si="4"/>
-        <v>162.69974099999999</v>
-      </c>
-    </row>
-    <row r="302" spans="1:27" ht="13.5">
+      <c r="AA301" s="6"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>328</v>
       </c>
@@ -26945,12 +26064,9 @@
       <c r="Z302" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA302" s="6">
-        <f t="shared" si="4"/>
-        <v>145.78571499999995</v>
-      </c>
-    </row>
-    <row r="303" spans="1:27" ht="13.5">
+      <c r="AA302" s="6"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>329</v>
       </c>
@@ -27029,12 +26145,9 @@
       <c r="Z303" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA303" s="6">
-        <f t="shared" si="4"/>
-        <v>146.05639800000003</v>
-      </c>
-    </row>
-    <row r="304" spans="1:27" ht="13.5">
+      <c r="AA303" s="6"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>330</v>
       </c>
@@ -27113,12 +26226,9 @@
       <c r="Z304" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA304" s="6">
-        <f t="shared" si="4"/>
-        <v>134.17599033333337</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27" ht="13.5">
+      <c r="AA304" s="6"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>331</v>
       </c>
@@ -27197,12 +26307,9 @@
       <c r="Z305" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA305" s="6">
-        <f t="shared" si="4"/>
-        <v>137.97551533333333</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27" ht="13.5">
+      <c r="AA305" s="6"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>332</v>
       </c>
@@ -27281,12 +26388,9 @@
       <c r="Z306" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA306" s="6">
-        <f t="shared" si="4"/>
-        <v>161.66716</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27" ht="13.5">
+      <c r="AA306" s="6"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>333</v>
       </c>
@@ -27365,12 +26469,9 @@
       <c r="Z307" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA307" s="6">
-        <f t="shared" si="4"/>
-        <v>170.25381433333339</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27" ht="13.5">
+      <c r="AA307" s="6"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>334</v>
       </c>
@@ -27449,12 +26550,9 @@
       <c r="Z308" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA308" s="6">
-        <f t="shared" si="4"/>
-        <v>174.48431000000002</v>
-      </c>
-    </row>
-    <row r="309" spans="1:27" ht="13.5">
+      <c r="AA308" s="6"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>335</v>
       </c>
@@ -27533,12 +26631,9 @@
       <c r="Z309" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA309" s="6">
-        <f t="shared" si="4"/>
-        <v>184.42981333333339</v>
-      </c>
-    </row>
-    <row r="310" spans="1:27" ht="13.5">
+      <c r="AA309" s="6"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>336</v>
       </c>
@@ -27617,12 +26712,9 @@
       <c r="Z310" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA310" s="6">
-        <f t="shared" si="4"/>
-        <v>182.94311866666672</v>
-      </c>
-    </row>
-    <row r="311" spans="1:27" ht="13.5">
+      <c r="AA310" s="6"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>337</v>
       </c>
@@ -27701,12 +26793,9 @@
       <c r="Z311" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA311" s="6">
-        <f t="shared" si="4"/>
-        <v>174.88052766666672</v>
-      </c>
-    </row>
-    <row r="312" spans="1:27" ht="13.5">
+      <c r="AA311" s="6"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>338</v>
       </c>
@@ -27785,12 +26874,9 @@
       <c r="Z312" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA312" s="6">
-        <f t="shared" si="4"/>
-        <v>194.47416933333326</v>
-      </c>
-    </row>
-    <row r="313" spans="1:27" ht="13.5">
+      <c r="AA312" s="6"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>339</v>
       </c>
@@ -27869,12 +26955,9 @@
       <c r="Z313" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA313" s="6">
-        <f t="shared" si="4"/>
-        <v>174.14784533333329</v>
-      </c>
-    </row>
-    <row r="314" spans="1:27" ht="13.5">
+      <c r="AA313" s="6"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>340</v>
       </c>
@@ -27953,12 +27036,9 @@
       <c r="Z314" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA314" s="6">
-        <f t="shared" si="4"/>
-        <v>180.8689293333334</v>
-      </c>
-    </row>
-    <row r="315" spans="1:27" ht="13.5">
+      <c r="AA314" s="6"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>341</v>
       </c>
@@ -28037,12 +27117,9 @@
       <c r="Z315" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA315" s="6">
-        <f t="shared" si="4"/>
-        <v>172.91515066666679</v>
-      </c>
-    </row>
-    <row r="316" spans="1:27" ht="13.5">
+      <c r="AA315" s="6"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>342</v>
       </c>
@@ -28121,12 +27198,9 @@
       <c r="Z316" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA316" s="6">
-        <f t="shared" si="4"/>
-        <v>180.7968613333334</v>
-      </c>
-    </row>
-    <row r="317" spans="1:27" ht="13.5">
+      <c r="AA316" s="6"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>343</v>
       </c>
@@ -28205,12 +27279,9 @@
       <c r="Z317" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA317" s="6">
-        <f t="shared" si="4"/>
-        <v>174.73053700000003</v>
-      </c>
-    </row>
-    <row r="318" spans="1:27" ht="13.5">
+      <c r="AA317" s="6"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>344</v>
       </c>
@@ -28289,12 +27360,9 @@
       <c r="Z318" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA318" s="6">
-        <f t="shared" si="4"/>
-        <v>173.50863966666665</v>
-      </c>
-    </row>
-    <row r="319" spans="1:27" ht="13.5">
+      <c r="AA318" s="6"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>345</v>
       </c>
@@ -28373,12 +27441,9 @@
       <c r="Z319" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA319" s="6">
-        <f t="shared" si="4"/>
-        <v>168.21447766666668</v>
-      </c>
-    </row>
-    <row r="320" spans="1:27" ht="13.5">
+      <c r="AA319" s="6"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>346</v>
       </c>
@@ -28457,12 +27522,9 @@
       <c r="Z320" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA320" s="6">
-        <f t="shared" si="4"/>
-        <v>173.15039033333332</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27" ht="13.5">
+      <c r="AA320" s="6"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>347</v>
       </c>
@@ -28541,12 +27603,9 @@
       <c r="Z321" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA321" s="6">
-        <f t="shared" si="4"/>
-        <v>183.24547766666663</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27" ht="13.5">
+      <c r="AA321" s="6"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>348</v>
       </c>
@@ -28625,12 +27684,9 @@
       <c r="Z322" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA322" s="6">
-        <f t="shared" si="4"/>
-        <v>186.61593900000005</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27" ht="13.5">
+      <c r="AA322" s="6"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>349</v>
       </c>
@@ -28709,12 +27765,9 @@
       <c r="Z323" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA323" s="6">
-        <f t="shared" si="4"/>
-        <v>181.64480233333325</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27" ht="13.5">
+      <c r="AA323" s="6"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>350</v>
       </c>
@@ -28793,12 +27846,9 @@
       <c r="Z324" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA324" s="6">
-        <f t="shared" si="4"/>
-        <v>172.39788499999997</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27" ht="13.5">
+      <c r="AA324" s="6"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>351</v>
       </c>
@@ -28877,12 +27927,9 @@
       <c r="Z325" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA325" s="6">
-        <f t="shared" ref="AA325:AA383" si="5">AVERAGE(B325:Y325)</f>
-        <v>162.35177599999994</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27" ht="13.5">
+      <c r="AA325" s="6"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>352</v>
       </c>
@@ -28961,12 +28008,9 @@
       <c r="Z326" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA326" s="6">
-        <f t="shared" si="5"/>
-        <v>146.24849266666666</v>
-      </c>
-    </row>
-    <row r="327" spans="1:27" ht="13.5">
+      <c r="AA326" s="6"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>353</v>
       </c>
@@ -29045,12 +28089,9 @@
       <c r="Z327" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA327" s="6">
-        <f t="shared" si="5"/>
-        <v>145.07071733333331</v>
-      </c>
-    </row>
-    <row r="328" spans="1:27" ht="13.5">
+      <c r="AA327" s="6"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>354</v>
       </c>
@@ -29129,12 +28170,9 @@
       <c r="Z328" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA328" s="6">
-        <f t="shared" si="5"/>
-        <v>139.18975666666665</v>
-      </c>
-    </row>
-    <row r="329" spans="1:27" ht="13.5">
+      <c r="AA328" s="6"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>355</v>
       </c>
@@ -29213,12 +28251,9 @@
       <c r="Z329" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA329" s="6">
-        <f t="shared" si="5"/>
-        <v>135.08457266666673</v>
-      </c>
-    </row>
-    <row r="330" spans="1:27" ht="13.5">
+      <c r="AA329" s="6"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>356</v>
       </c>
@@ -29297,12 +28332,9 @@
       <c r="Z330" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA330" s="6">
-        <f t="shared" si="5"/>
-        <v>140.60660900000002</v>
-      </c>
-    </row>
-    <row r="331" spans="1:27" ht="13.5">
+      <c r="AA330" s="6"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>357</v>
       </c>
@@ -29381,12 +28413,9 @@
       <c r="Z331" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA331" s="6">
-        <f t="shared" si="5"/>
-        <v>145.50806933333328</v>
-      </c>
-    </row>
-    <row r="332" spans="1:27" ht="13.5">
+      <c r="AA331" s="6"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>358</v>
       </c>
@@ -29465,12 +28494,9 @@
       <c r="Z332" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA332" s="6">
-        <f t="shared" si="5"/>
-        <v>145.11123333333333</v>
-      </c>
-    </row>
-    <row r="333" spans="1:27" ht="13.5">
+      <c r="AA332" s="6"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>359</v>
       </c>
@@ -29549,12 +28575,9 @@
       <c r="Z333" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA333" s="6">
-        <f t="shared" si="5"/>
-        <v>131.33625033333331</v>
-      </c>
-    </row>
-    <row r="334" spans="1:27" ht="13.5">
+      <c r="AA333" s="6"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>360</v>
       </c>
@@ -29633,12 +28656,9 @@
       <c r="Z334" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA334" s="6">
-        <f t="shared" si="5"/>
-        <v>160.87467933333335</v>
-      </c>
-    </row>
-    <row r="335" spans="1:27" ht="13.5">
+      <c r="AA334" s="6"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>361</v>
       </c>
@@ -29717,12 +28737,9 @@
       <c r="Z335" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA335" s="6">
-        <f t="shared" si="5"/>
-        <v>152.14082099999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:27" ht="13.5">
+      <c r="AA335" s="6"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>362</v>
       </c>
@@ -29801,12 +28818,9 @@
       <c r="Z336" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA336" s="6">
-        <f t="shared" si="5"/>
-        <v>175.04359266666665</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27" ht="13.5">
+      <c r="AA336" s="6"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>363</v>
       </c>
@@ -29885,12 +28899,9 @@
       <c r="Z337" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA337" s="6">
-        <f t="shared" si="5"/>
-        <v>181.27823799999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27" ht="13.5">
+      <c r="AA337" s="6"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>364</v>
       </c>
@@ -29969,12 +28980,9 @@
       <c r="Z338" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA338" s="6">
-        <f t="shared" si="5"/>
-        <v>191.13743699999995</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27" ht="13.5">
+      <c r="AA338" s="6"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>365</v>
       </c>
@@ -30053,12 +29061,9 @@
       <c r="Z339" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA339" s="6">
-        <f t="shared" si="5"/>
-        <v>166.88772899999998</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27" ht="13.5">
+      <c r="AA339" s="6"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>367</v>
       </c>
@@ -30137,12 +29142,9 @@
       <c r="Z340" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA340" s="6">
-        <f t="shared" si="5"/>
-        <v>155.67369433333337</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27" ht="13.5">
+      <c r="AA340" s="6"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>368</v>
       </c>
@@ -30221,12 +29223,9 @@
       <c r="Z341" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA341" s="6">
-        <f t="shared" si="5"/>
-        <v>161.96551200000002</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27" ht="13.5">
+      <c r="AA341" s="6"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>369</v>
       </c>
@@ -30305,12 +29304,9 @@
       <c r="Z342" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA342" s="6">
-        <f t="shared" si="5"/>
-        <v>179.76114333333328</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27" ht="13.5">
+      <c r="AA342" s="6"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>370</v>
       </c>
@@ -30389,12 +29385,9 @@
       <c r="Z343" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA343" s="6">
-        <f t="shared" si="5"/>
-        <v>184.50766333333334</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27" ht="13.5">
+      <c r="AA343" s="6"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>371</v>
       </c>
@@ -30473,12 +29466,9 @@
       <c r="Z344" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA344" s="6">
-        <f t="shared" si="5"/>
-        <v>170.60539566666657</v>
-      </c>
-    </row>
-    <row r="345" spans="1:27" ht="13.5">
+      <c r="AA344" s="6"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>372</v>
       </c>
@@ -30557,12 +29547,9 @@
       <c r="Z345" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA345" s="6">
-        <f t="shared" si="5"/>
-        <v>180.0252889999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:27" ht="13.5">
+      <c r="AA345" s="6"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>373</v>
       </c>
@@ -30641,12 +29628,9 @@
       <c r="Z346" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA346" s="6">
-        <f t="shared" si="5"/>
-        <v>171.18463133333339</v>
-      </c>
-    </row>
-    <row r="347" spans="1:27" ht="13.5">
+      <c r="AA346" s="6"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>374</v>
       </c>
@@ -30725,12 +29709,9 @@
       <c r="Z347" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA347" s="6">
-        <f t="shared" si="5"/>
-        <v>178.31583233333333</v>
-      </c>
-    </row>
-    <row r="348" spans="1:27" ht="13.5">
+      <c r="AA347" s="6"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>375</v>
       </c>
@@ -30809,12 +29790,9 @@
       <c r="Z348" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA348" s="6">
-        <f t="shared" si="5"/>
-        <v>181.76579433333328</v>
-      </c>
-    </row>
-    <row r="349" spans="1:27" ht="13.5">
+      <c r="AA348" s="6"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>376</v>
       </c>
@@ -30893,12 +29871,9 @@
       <c r="Z349" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA349" s="6">
-        <f t="shared" si="5"/>
-        <v>176.72980066666673</v>
-      </c>
-    </row>
-    <row r="350" spans="1:27" ht="13.5">
+      <c r="AA349" s="6"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>377</v>
       </c>
@@ -30977,12 +29952,9 @@
       <c r="Z350" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA350" s="6">
-        <f t="shared" si="5"/>
-        <v>176.68632199999993</v>
-      </c>
-    </row>
-    <row r="351" spans="1:27" ht="13.5">
+      <c r="AA350" s="6"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>378</v>
       </c>
@@ -31061,12 +30033,9 @@
       <c r="Z351" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA351" s="6">
-        <f t="shared" si="5"/>
-        <v>191.74534700000007</v>
-      </c>
-    </row>
-    <row r="352" spans="1:27" ht="13.5">
+      <c r="AA351" s="6"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>379</v>
       </c>
@@ -31145,12 +30114,9 @@
       <c r="Z352" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA352" s="6">
-        <f t="shared" si="5"/>
-        <v>195.55332566666667</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27" ht="13.5">
+      <c r="AA352" s="6"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>380</v>
       </c>
@@ -31229,12 +30195,9 @@
       <c r="Z353" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA353" s="6">
-        <f t="shared" si="5"/>
-        <v>199.29636200000002</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27" ht="13.5">
+      <c r="AA353" s="6"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>381</v>
       </c>
@@ -31313,12 +30276,9 @@
       <c r="Z354" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA354" s="6">
-        <f t="shared" si="5"/>
-        <v>201.17974866666668</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27" ht="13.5">
+      <c r="AA354" s="6"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>382</v>
       </c>
@@ -31397,12 +30357,9 @@
       <c r="Z355" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA355" s="6">
-        <f t="shared" si="5"/>
-        <v>203.14522433333329</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27" ht="13.5">
+      <c r="AA355" s="6"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>383</v>
       </c>
@@ -31481,12 +30438,9 @@
       <c r="Z356" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA356" s="6">
-        <f t="shared" si="5"/>
-        <v>210.15548733333333</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27" ht="13.5">
+      <c r="AA356" s="6"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>384</v>
       </c>
@@ -31565,12 +30519,9 @@
       <c r="Z357" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA357" s="6">
-        <f t="shared" si="5"/>
-        <v>205.32178866666663</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27" ht="13.5">
+      <c r="AA357" s="6"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>385</v>
       </c>
@@ -31649,12 +30600,9 @@
       <c r="Z358" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA358" s="6">
-        <f t="shared" si="5"/>
-        <v>200.66475566666668</v>
-      </c>
-    </row>
-    <row r="359" spans="1:27" ht="13.5">
+      <c r="AA358" s="6"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>386</v>
       </c>
@@ -31733,12 +30681,9 @@
       <c r="Z359" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA359" s="6">
-        <f t="shared" si="5"/>
-        <v>193.4560929999999</v>
-      </c>
-    </row>
-    <row r="360" spans="1:27" ht="13.5">
+      <c r="AA359" s="6"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>387</v>
       </c>
@@ -31817,12 +30762,9 @@
       <c r="Z360" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA360" s="6">
-        <f t="shared" si="5"/>
-        <v>191.55550166666669</v>
-      </c>
-    </row>
-    <row r="361" spans="1:27" ht="13.5">
+      <c r="AA360" s="6"/>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>388</v>
       </c>
@@ -31901,12 +30843,9 @@
       <c r="Z361" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA361" s="6">
-        <f t="shared" si="5"/>
-        <v>182.83039733333339</v>
-      </c>
-    </row>
-    <row r="362" spans="1:27" ht="13.5">
+      <c r="AA361" s="6"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>389</v>
       </c>
@@ -31985,12 +30924,9 @@
       <c r="Z362" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA362" s="6">
-        <f t="shared" si="5"/>
-        <v>183.14040266666666</v>
-      </c>
-    </row>
-    <row r="363" spans="1:27" ht="13.5">
+      <c r="AA362" s="6"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>390</v>
       </c>
@@ -32069,12 +31005,9 @@
       <c r="Z363" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA363" s="6">
-        <f t="shared" si="5"/>
-        <v>167.48121666666671</v>
-      </c>
-    </row>
-    <row r="364" spans="1:27" ht="13.5">
+      <c r="AA363" s="6"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>391</v>
       </c>
@@ -32153,12 +31086,9 @@
       <c r="Z364" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA364" s="6">
-        <f t="shared" si="5"/>
-        <v>184.76657866666662</v>
-      </c>
-    </row>
-    <row r="365" spans="1:27" ht="13.5">
+      <c r="AA364" s="6"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>392</v>
       </c>
@@ -32237,12 +31167,9 @@
       <c r="Z365" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA365" s="6">
-        <f t="shared" si="5"/>
-        <v>165.99774633333337</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" ht="13.5">
+      <c r="AA365" s="6"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>393</v>
       </c>
@@ -32321,12 +31248,9 @@
       <c r="Z366" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA366" s="6">
-        <f t="shared" si="5"/>
-        <v>158.14469166666672</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" ht="13.5">
+      <c r="AA366" s="6"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>394</v>
       </c>
@@ -32405,12 +31329,9 @@
       <c r="Z367" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA367" s="6">
-        <f t="shared" si="5"/>
-        <v>153.98720233333333</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" ht="13.5">
+      <c r="AA367" s="6"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>395</v>
       </c>
@@ -32489,12 +31410,9 @@
       <c r="Z368" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA368" s="6">
-        <f t="shared" si="5"/>
-        <v>159.03825866666665</v>
-      </c>
-    </row>
-    <row r="369" spans="1:27" ht="20.25" customHeight="1">
+      <c r="AA368" s="6"/>
+    </row>
+    <row r="369" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>396</v>
       </c>
@@ -32573,54 +31491,48 @@
       <c r="Z369" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AA369" s="6">
-        <f>AVERAGE(B369:Y369)</f>
-        <v>158.94535099999999</v>
-      </c>
-    </row>
-    <row r="370" spans="1:27" ht="20.25" customHeight="1">
-      <c r="AA370" s="6">
-        <f>AVERAGE(AA4:AA369)</f>
-        <v>116.00038874043722</v>
-      </c>
-    </row>
-    <row r="371" spans="1:27" ht="20.25" customHeight="1">
+      <c r="AA369" s="6"/>
+    </row>
+    <row r="370" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA370" s="6"/>
+    </row>
+    <row r="371" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA371" s="6"/>
     </row>
-    <row r="372" spans="1:27">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA372" s="6"/>
     </row>
-    <row r="373" spans="1:27">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA373" s="6"/>
     </row>
-    <row r="374" spans="1:27">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA374" s="6"/>
     </row>
-    <row r="375" spans="1:27">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA375" s="6"/>
     </row>
-    <row r="376" spans="1:27">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA376" s="6"/>
     </row>
-    <row r="377" spans="1:27">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA377" s="6"/>
     </row>
-    <row r="378" spans="1:27">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA378" s="6"/>
     </row>
-    <row r="379" spans="1:27">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA379" s="6"/>
     </row>
-    <row r="380" spans="1:27">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA380" s="6"/>
     </row>
-    <row r="381" spans="1:27">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA381" s="6"/>
     </row>
-    <row r="382" spans="1:27">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA382" s="6"/>
     </row>
-    <row r="383" spans="1:27">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA383" s="6"/>
     </row>
   </sheetData>
@@ -32777,6 +31689,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32785,20 +31703,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEA15538-DCE8-4BF8-8C1E-B619C180906B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEA15538-DCE8-4BF8-8C1E-B619C180906B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF822E4C-B9D6-4D19-B299-CCEA6EC04C6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E32DD8-C8CB-48C8-AE7A-B5CE52CDF802}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E32DD8-C8CB-48C8-AE7A-B5CE52CDF802}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF822E4C-B9D6-4D19-B299-CCEA6EC04C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>